--- a/Excel/Práctica/9. Enlazado de Archivos en Excel/10-01-VentasTotales-CUE.xlsx
+++ b/Excel/Práctica/9. Enlazado de Archivos en Excel/10-01-VentasTotales-CUE.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\UniversidadExcel\Videos\10-EnlazandoArchivos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertovelasquezdean/Desktop/Rescata_/Programación/Excel/Práctica/9. Enlazado de Archivos en Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B1CC54A-F3ED-4B6A-966F-804C73C98DEA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16215" yWindow="1470" windowWidth="19290" windowHeight="10920" xr2:uid="{1916B8F9-047F-4FFA-AE94-5E94C9D8343C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -20,9 +19,12 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,22 +37,177 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Ventas Totales</t>
   </si>
   <si>
     <t>Bono Total</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Esta hoja de cálculo tiene </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">conexiones </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">o vinculos con otras hojas de cálculo externas a este archivo de Excel; digamos, trabaja conjuntamente con otras hojas de cálculo de otros archivos Excel. Si quisieramos manipular la manera en cómo se da esta conexión y configurarla a nuestro gusto, nos tenemos que acercar a la pestaña </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Datos </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">y luego a la opción </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modificar vinculos.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Estando ahí, podemos decirle a nuestro archivo de Excel actual que actualice sus valores, en tiempo real, con cada uno de los vinculos que tiene (si así lo deseamos) con los demás archivos Excel en caso que estos archivos de origen hayan sufrido de modificaciones anteriormente. Podríamos actualizar los valores según las modificaciones de un sólo vinculo, en la barra </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Actualizar ahora</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, al seleccionar un sólo archivo de origen enlazado con este archivo actual; o, incluso, podríamos actualizar los valores de las modificaciones de todos los archivos de origen, vinculados a éste, al hacer click directamente en </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Actualizar ahora </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sin hacer click previamente en un archivo de origen en particular.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">En </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Abrir origen, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">seleccionando primero un archivo de origen de nuestro interés que tenga vinculo con nuestra hoja de cálculo actual, podemos abrir dicho archivo de origen directamente (cualquiera que sea seleccionado). Sin embargo, con </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Romper vinculo </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>desligamos el archivo de origen seleccionado con nuestra hoja de cálculo actual; es decir, de tal manera que la hoja de cálculo actual no se vea afectada más por dicho archivo de origen seleccionado (se desligan completamente).</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="14"/>
       <color theme="1"/>
@@ -71,6 +228,28 @@
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -100,10 +279,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Énfasis2" xfId="1" builtinId="33"/>
@@ -484,28 +666,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3144B5C-180C-42D8-B8B2-6485ED957D8C}">
-  <dimension ref="A2:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>[1]Hoja1!$D$10+[2]Hoja1!$D$10+[3]Hoja1!$D$10</f>
         <v>68900</v>
@@ -514,8 +711,147 @@
         <f>[1]Hoja1!$E$10+[2]Hoja1!$E$10+[3]Hoja1!$E$10</f>
         <v>5087</v>
       </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:P8"/>
+    <mergeCell ref="D10:P12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>